--- a/data/pca/factorExposure/factorExposure_2012-04-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-09.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01635383140004145</v>
+        <v>-0.01659354653421287</v>
       </c>
       <c r="C2">
-        <v>-0.03508751095660369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02885975431849889</v>
+      </c>
+      <c r="D2">
+        <v>-0.001022381948209886</v>
+      </c>
+      <c r="E2">
+        <v>-0.009561221994961802</v>
+      </c>
+      <c r="F2">
+        <v>0.007707074991583002</v>
+      </c>
+      <c r="G2">
+        <v>0.003877845002388037</v>
+      </c>
+      <c r="H2">
+        <v>0.05787114537035587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07507915335206432</v>
+        <v>-0.08813341067821556</v>
       </c>
       <c r="C4">
-        <v>-0.0556679113814068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03880223942308322</v>
+      </c>
+      <c r="D4">
+        <v>-0.06595516756062426</v>
+      </c>
+      <c r="E4">
+        <v>-0.01577235750505045</v>
+      </c>
+      <c r="F4">
+        <v>0.02921897824696117</v>
+      </c>
+      <c r="G4">
+        <v>0.009239318217436112</v>
+      </c>
+      <c r="H4">
+        <v>-0.04640158160524695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1067170939160901</v>
+        <v>-0.1190190134726258</v>
       </c>
       <c r="C6">
-        <v>-0.05659348050308177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03340946840288851</v>
+      </c>
+      <c r="D6">
+        <v>-0.009357830048451718</v>
+      </c>
+      <c r="E6">
+        <v>0.007747815811139912</v>
+      </c>
+      <c r="F6">
+        <v>0.06246836976403718</v>
+      </c>
+      <c r="G6">
+        <v>0.0233100881737986</v>
+      </c>
+      <c r="H6">
+        <v>0.09446380376722732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04914332163981536</v>
+        <v>-0.06445078793124291</v>
       </c>
       <c r="C7">
-        <v>-0.02797500204380599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01925914848197665</v>
+      </c>
+      <c r="D7">
+        <v>-0.04586877330283061</v>
+      </c>
+      <c r="E7">
+        <v>-0.03794913697683837</v>
+      </c>
+      <c r="F7">
+        <v>0.03557968549190779</v>
+      </c>
+      <c r="G7">
+        <v>-0.03943581223153818</v>
+      </c>
+      <c r="H7">
+        <v>-0.02171338336835907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03629505984306042</v>
+        <v>-0.04078387452340524</v>
       </c>
       <c r="C8">
-        <v>-0.01203908092270029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.007814220491910939</v>
+      </c>
+      <c r="D8">
+        <v>-0.02281542091877825</v>
+      </c>
+      <c r="E8">
+        <v>-0.03339761120063633</v>
+      </c>
+      <c r="F8">
+        <v>0.04991524548424046</v>
+      </c>
+      <c r="G8">
+        <v>0.04067657721861458</v>
+      </c>
+      <c r="H8">
+        <v>-0.008591160030559758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06800585868158288</v>
+        <v>-0.07948928239516366</v>
       </c>
       <c r="C9">
-        <v>-0.04593698175420563</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02947323737745077</v>
+      </c>
+      <c r="D9">
+        <v>-0.0626741340330035</v>
+      </c>
+      <c r="E9">
+        <v>-0.03717977797862785</v>
+      </c>
+      <c r="F9">
+        <v>0.03205609769706625</v>
+      </c>
+      <c r="G9">
+        <v>0.01168790235456217</v>
+      </c>
+      <c r="H9">
+        <v>-0.05742434155987387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0291494442579293</v>
+        <v>-0.03542784544424912</v>
       </c>
       <c r="C10">
-        <v>-0.03501281273980451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04221515054380321</v>
+      </c>
+      <c r="D10">
+        <v>0.1716102009314291</v>
+      </c>
+      <c r="E10">
+        <v>-0.0538564328947548</v>
+      </c>
+      <c r="F10">
+        <v>0.04292927705609067</v>
+      </c>
+      <c r="G10">
+        <v>-0.04008374901668136</v>
+      </c>
+      <c r="H10">
+        <v>0.03092769753489469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07043097365808763</v>
+        <v>-0.07656452289512967</v>
       </c>
       <c r="C11">
-        <v>-0.04798260932379841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02711521356280622</v>
+      </c>
+      <c r="D11">
+        <v>-0.06224802051085308</v>
+      </c>
+      <c r="E11">
+        <v>0.003008208959914714</v>
+      </c>
+      <c r="F11">
+        <v>0.02563133885338362</v>
+      </c>
+      <c r="G11">
+        <v>0.001507897593030111</v>
+      </c>
+      <c r="H11">
+        <v>-0.1050086947565713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05683606779398246</v>
+        <v>-0.06652324552734536</v>
       </c>
       <c r="C12">
-        <v>-0.05171560346681534</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03551992811772581</v>
+      </c>
+      <c r="D12">
+        <v>-0.0492945186044099</v>
+      </c>
+      <c r="E12">
+        <v>-0.0144196044163323</v>
+      </c>
+      <c r="F12">
+        <v>0.01556563888666382</v>
+      </c>
+      <c r="G12">
+        <v>0.002336772652362131</v>
+      </c>
+      <c r="H12">
+        <v>-0.06015685355011683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05908265895987769</v>
+        <v>-0.06504063971375276</v>
       </c>
       <c r="C13">
-        <v>-0.04208493985556433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02605429983479854</v>
+      </c>
+      <c r="D13">
+        <v>-0.04287188747199969</v>
+      </c>
+      <c r="E13">
+        <v>-0.01436396902464266</v>
+      </c>
+      <c r="F13">
+        <v>0.003327365388023514</v>
+      </c>
+      <c r="G13">
+        <v>-0.0002712426536580813</v>
+      </c>
+      <c r="H13">
+        <v>-0.05131686905896073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03296791825116231</v>
+        <v>-0.04173749209360308</v>
       </c>
       <c r="C14">
-        <v>-0.03224927770946381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02810094002889234</v>
+      </c>
+      <c r="D14">
+        <v>-0.003842873246613462</v>
+      </c>
+      <c r="E14">
+        <v>-0.03060590417688069</v>
+      </c>
+      <c r="F14">
+        <v>0.01474653602271717</v>
+      </c>
+      <c r="G14">
+        <v>0.01714316713297811</v>
+      </c>
+      <c r="H14">
+        <v>-0.06017708677721753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03993427444411692</v>
+        <v>-0.039805284834305</v>
       </c>
       <c r="C15">
-        <v>-0.01155292648621333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003106383202232269</v>
+      </c>
+      <c r="D15">
+        <v>-0.002859048002734631</v>
+      </c>
+      <c r="E15">
+        <v>-0.04042274502818258</v>
+      </c>
+      <c r="F15">
+        <v>-0.005621973158456912</v>
+      </c>
+      <c r="G15">
+        <v>0.02795733895143327</v>
+      </c>
+      <c r="H15">
+        <v>-0.03879107072075567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05997796144530626</v>
+        <v>-0.06980640510993016</v>
       </c>
       <c r="C16">
-        <v>-0.04364830612013625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02808490404542425</v>
+      </c>
+      <c r="D16">
+        <v>-0.06282260784961473</v>
+      </c>
+      <c r="E16">
+        <v>-0.007914723229233839</v>
+      </c>
+      <c r="F16">
+        <v>0.02132513574157554</v>
+      </c>
+      <c r="G16">
+        <v>-0.002293048465095736</v>
+      </c>
+      <c r="H16">
+        <v>-0.06354905923621088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06443323430721194</v>
+        <v>-0.06362175772873488</v>
       </c>
       <c r="C20">
-        <v>-0.03352783968477943</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0138532923528907</v>
+      </c>
+      <c r="D20">
+        <v>-0.03923963695068954</v>
+      </c>
+      <c r="E20">
+        <v>-0.03321036415850454</v>
+      </c>
+      <c r="F20">
+        <v>0.01718015461048312</v>
+      </c>
+      <c r="G20">
+        <v>0.01454954356930973</v>
+      </c>
+      <c r="H20">
+        <v>-0.06091900865902254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02328839743877283</v>
+        <v>-0.02394990063950071</v>
       </c>
       <c r="C21">
-        <v>0.002599569988128248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.00970960983980501</v>
+      </c>
+      <c r="D21">
+        <v>-0.02969019961230681</v>
+      </c>
+      <c r="E21">
+        <v>-0.04020604877181257</v>
+      </c>
+      <c r="F21">
+        <v>-0.01221577742940139</v>
+      </c>
+      <c r="G21">
+        <v>0.009679519846494098</v>
+      </c>
+      <c r="H21">
+        <v>0.04685312047336618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07148297014076349</v>
+        <v>-0.06898405934380086</v>
       </c>
       <c r="C22">
-        <v>-0.06097464886341213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03993741870301019</v>
+      </c>
+      <c r="D22">
+        <v>-0.06982475731346197</v>
+      </c>
+      <c r="E22">
+        <v>-0.568703034344518</v>
+      </c>
+      <c r="F22">
+        <v>-0.2402739732846655</v>
+      </c>
+      <c r="G22">
+        <v>-0.04650254284541595</v>
+      </c>
+      <c r="H22">
+        <v>0.1839613756127594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07248729689057336</v>
+        <v>-0.06960070348976512</v>
       </c>
       <c r="C23">
-        <v>-0.0599164778354634</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03864536148535856</v>
+      </c>
+      <c r="D23">
+        <v>-0.07077130327186468</v>
+      </c>
+      <c r="E23">
+        <v>-0.5682905435498439</v>
+      </c>
+      <c r="F23">
+        <v>-0.2391709211337895</v>
+      </c>
+      <c r="G23">
+        <v>-0.04479626818279701</v>
+      </c>
+      <c r="H23">
+        <v>0.1795293759222263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06943784295840472</v>
+        <v>-0.07949048322137429</v>
       </c>
       <c r="C24">
-        <v>-0.05222811653512494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03387058542719479</v>
+      </c>
+      <c r="D24">
+        <v>-0.05948868421637407</v>
+      </c>
+      <c r="E24">
+        <v>-0.01871667183316003</v>
+      </c>
+      <c r="F24">
+        <v>0.03086516464732031</v>
+      </c>
+      <c r="G24">
+        <v>0.009021876597436538</v>
+      </c>
+      <c r="H24">
+        <v>-0.07203658727398031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06984306413222835</v>
+        <v>-0.07703560858780115</v>
       </c>
       <c r="C25">
-        <v>-0.05777799521730202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03812317351894212</v>
+      </c>
+      <c r="D25">
+        <v>-0.05184254903756327</v>
+      </c>
+      <c r="E25">
+        <v>-0.01978204480739079</v>
+      </c>
+      <c r="F25">
+        <v>0.02528759196703393</v>
+      </c>
+      <c r="G25">
+        <v>0.02018677026946722</v>
+      </c>
+      <c r="H25">
+        <v>-0.07426075572034611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04503804567987495</v>
+        <v>-0.04714944187123413</v>
       </c>
       <c r="C26">
-        <v>-0.01002343127790205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.001107531294539653</v>
+      </c>
+      <c r="D26">
+        <v>-0.01797056541477817</v>
+      </c>
+      <c r="E26">
+        <v>-0.05217309691434863</v>
+      </c>
+      <c r="F26">
+        <v>0.01877394513957854</v>
+      </c>
+      <c r="G26">
+        <v>-0.0005830566589143788</v>
+      </c>
+      <c r="H26">
+        <v>-0.06183152888723962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05429958510329891</v>
+        <v>-0.06419662519909183</v>
       </c>
       <c r="C28">
-        <v>-0.07459996843048076</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.08307767744288093</v>
+      </c>
+      <c r="D28">
+        <v>0.3073143997468437</v>
+      </c>
+      <c r="E28">
+        <v>-0.02710175380443821</v>
+      </c>
+      <c r="F28">
+        <v>0.05695599436237397</v>
+      </c>
+      <c r="G28">
+        <v>0.02117156459473376</v>
+      </c>
+      <c r="H28">
+        <v>0.0449225707864777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04058915376050363</v>
+        <v>-0.04857777816441828</v>
       </c>
       <c r="C29">
-        <v>-0.03241087415959029</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02577487356009069</v>
+      </c>
+      <c r="D29">
+        <v>-0.004433308712576293</v>
+      </c>
+      <c r="E29">
+        <v>-0.05529399080404079</v>
+      </c>
+      <c r="F29">
+        <v>0.0005950157004876288</v>
+      </c>
+      <c r="G29">
+        <v>-0.0001869045595327843</v>
+      </c>
+      <c r="H29">
+        <v>-0.08325124401324817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1262552612055662</v>
+        <v>-0.133065554362057</v>
       </c>
       <c r="C30">
-        <v>-0.09710507644474639</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06442618725106601</v>
+      </c>
+      <c r="D30">
+        <v>-0.07086497771197041</v>
+      </c>
+      <c r="E30">
+        <v>-0.08375678937852196</v>
+      </c>
+      <c r="F30">
+        <v>-0.01771862595913449</v>
+      </c>
+      <c r="G30">
+        <v>0.07050191776150903</v>
+      </c>
+      <c r="H30">
+        <v>0.01135383190560326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04232095014826423</v>
+        <v>-0.04857418043138862</v>
       </c>
       <c r="C31">
-        <v>-0.02061230854469267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01203912647859166</v>
+      </c>
+      <c r="D31">
+        <v>-0.02420221441565313</v>
+      </c>
+      <c r="E31">
+        <v>-0.02856273839053601</v>
+      </c>
+      <c r="F31">
+        <v>0.008022788441164044</v>
+      </c>
+      <c r="G31">
+        <v>-0.01878181643371432</v>
+      </c>
+      <c r="H31">
+        <v>-0.07096105255050046</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03466112080506289</v>
+        <v>-0.03780885001607633</v>
       </c>
       <c r="C32">
-        <v>-0.02277901315942189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01648692946601654</v>
+      </c>
+      <c r="D32">
+        <v>-0.01150025567001195</v>
+      </c>
+      <c r="E32">
+        <v>-0.06873079803758393</v>
+      </c>
+      <c r="F32">
+        <v>-0.02020822149185575</v>
+      </c>
+      <c r="G32">
+        <v>0.03579935446707001</v>
+      </c>
+      <c r="H32">
+        <v>-0.06403467975528063</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08104747365267156</v>
+        <v>-0.09519524414323846</v>
       </c>
       <c r="C33">
-        <v>-0.04490822162295672</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.02675371619550928</v>
+      </c>
+      <c r="D33">
+        <v>-0.05008014664522275</v>
+      </c>
+      <c r="E33">
+        <v>-0.01551588747790282</v>
+      </c>
+      <c r="F33">
+        <v>0.0006447524001990719</v>
+      </c>
+      <c r="G33">
+        <v>-0.007174849020268229</v>
+      </c>
+      <c r="H33">
+        <v>-0.07931287611983838</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05538316883553264</v>
+        <v>-0.06156592210087013</v>
       </c>
       <c r="C34">
-        <v>-0.02937738547764968</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01357186559709536</v>
+      </c>
+      <c r="D34">
+        <v>-0.05459160544683485</v>
+      </c>
+      <c r="E34">
+        <v>-0.01114372083264955</v>
+      </c>
+      <c r="F34">
+        <v>0.01308236945752254</v>
+      </c>
+      <c r="G34">
+        <v>0.007792238057961854</v>
+      </c>
+      <c r="H34">
+        <v>-0.06228379118377705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03709791344639755</v>
+        <v>-0.04008973128600399</v>
       </c>
       <c r="C35">
-        <v>-0.009586570870311359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002342232872154754</v>
+      </c>
+      <c r="D35">
+        <v>-0.006340445439538947</v>
+      </c>
+      <c r="E35">
+        <v>-0.01836575486529508</v>
+      </c>
+      <c r="F35">
+        <v>-0.01529067225750249</v>
+      </c>
+      <c r="G35">
+        <v>-0.008916310341609548</v>
+      </c>
+      <c r="H35">
+        <v>-0.02990845961585207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02027819281757815</v>
+        <v>-0.02691772451040329</v>
       </c>
       <c r="C36">
-        <v>-0.01739393298529124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01353406934366268</v>
+      </c>
+      <c r="D36">
+        <v>-0.01240353285782508</v>
+      </c>
+      <c r="E36">
+        <v>-0.04474592375859415</v>
+      </c>
+      <c r="F36">
+        <v>0.01250437536587411</v>
+      </c>
+      <c r="G36">
+        <v>-0.006040365458771392</v>
+      </c>
+      <c r="H36">
+        <v>-0.04940849836383869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04027386576401713</v>
+        <v>-0.04358903568249445</v>
       </c>
       <c r="C38">
-        <v>-0.003546072428458073</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.003212648001904122</v>
+      </c>
+      <c r="D38">
+        <v>-0.01630385357386639</v>
+      </c>
+      <c r="E38">
+        <v>-0.05669018136686831</v>
+      </c>
+      <c r="F38">
+        <v>-0.02102079898511491</v>
+      </c>
+      <c r="G38">
+        <v>0.01540661627680831</v>
+      </c>
+      <c r="H38">
+        <v>-0.02165173490654736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09072308430855505</v>
+        <v>-0.1026583837447309</v>
       </c>
       <c r="C39">
-        <v>-0.07263334853374312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.04874022102243392</v>
+      </c>
+      <c r="D39">
+        <v>-0.06639470678674422</v>
+      </c>
+      <c r="E39">
+        <v>-0.0007864454339582744</v>
+      </c>
+      <c r="F39">
+        <v>0.01009469171699235</v>
+      </c>
+      <c r="G39">
+        <v>0.03696706263762287</v>
+      </c>
+      <c r="H39">
+        <v>-0.07750211266451992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07298569370238032</v>
+        <v>-0.07162288162681912</v>
       </c>
       <c r="C40">
-        <v>-0.04095021409662783</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.01953320277611097</v>
+      </c>
+      <c r="D40">
+        <v>-0.0122084390290188</v>
+      </c>
+      <c r="E40">
+        <v>-0.02029090791852533</v>
+      </c>
+      <c r="F40">
+        <v>-0.05387503892832239</v>
+      </c>
+      <c r="G40">
+        <v>0.0447623984536681</v>
+      </c>
+      <c r="H40">
+        <v>0.06250952895085721</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04074876613657447</v>
+        <v>-0.04377701138742517</v>
       </c>
       <c r="C41">
-        <v>-0.007317606863771289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.0009940260973351006</v>
+      </c>
+      <c r="D41">
+        <v>-0.0341707271957539</v>
+      </c>
+      <c r="E41">
+        <v>-0.002897180948191668</v>
+      </c>
+      <c r="F41">
+        <v>-0.01532783456268209</v>
+      </c>
+      <c r="G41">
+        <v>0.01527143754964415</v>
+      </c>
+      <c r="H41">
+        <v>-0.03751681709532335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04607486924487296</v>
+        <v>-0.0572095062726886</v>
       </c>
       <c r="C43">
-        <v>-0.02596520894394346</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01733592470171886</v>
+      </c>
+      <c r="D43">
+        <v>-0.02471206618731783</v>
+      </c>
+      <c r="E43">
+        <v>-0.02002469043250053</v>
+      </c>
+      <c r="F43">
+        <v>0.01096790692217163</v>
+      </c>
+      <c r="G43">
+        <v>-0.009144337084009073</v>
+      </c>
+      <c r="H43">
+        <v>-0.0539072755471512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09421636782461117</v>
+        <v>-0.09380615278813643</v>
       </c>
       <c r="C44">
-        <v>-0.09683141421344117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06524669309758441</v>
+      </c>
+      <c r="D44">
+        <v>-0.0625640743532869</v>
+      </c>
+      <c r="E44">
+        <v>-0.09867604954613046</v>
+      </c>
+      <c r="F44">
+        <v>0.03594283572363802</v>
+      </c>
+      <c r="G44">
+        <v>0.02740208107295845</v>
+      </c>
+      <c r="H44">
+        <v>-0.02615579949299465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02515799749853924</v>
+        <v>-0.03244918369121086</v>
       </c>
       <c r="C46">
-        <v>-0.01404350333502642</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.0101383373400804</v>
+      </c>
+      <c r="D46">
+        <v>-0.03054505418269892</v>
+      </c>
+      <c r="E46">
+        <v>-0.02902307830726293</v>
+      </c>
+      <c r="F46">
+        <v>0.01319715066467602</v>
+      </c>
+      <c r="G46">
+        <v>0.007412278414702162</v>
+      </c>
+      <c r="H46">
+        <v>-0.03457990280600739</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02846379433317467</v>
+        <v>-0.03680630581452926</v>
       </c>
       <c r="C47">
-        <v>-0.02587580052509423</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.02096729825320458</v>
+      </c>
+      <c r="D47">
+        <v>-0.01235521970950289</v>
+      </c>
+      <c r="E47">
+        <v>-0.05344091636598978</v>
+      </c>
+      <c r="F47">
+        <v>0.005092750614655533</v>
+      </c>
+      <c r="G47">
+        <v>-0.0399431714824993</v>
+      </c>
+      <c r="H47">
+        <v>-0.01815422453373336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03115631865119505</v>
+        <v>-0.03675120211943773</v>
       </c>
       <c r="C48">
-        <v>-0.01629827215768562</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.009330673513028149</v>
+      </c>
+      <c r="D48">
+        <v>-0.01962218462669273</v>
+      </c>
+      <c r="E48">
+        <v>-0.04279866175539673</v>
+      </c>
+      <c r="F48">
+        <v>-0.0008136080225175477</v>
+      </c>
+      <c r="G48">
+        <v>0.01370130029361067</v>
+      </c>
+      <c r="H48">
+        <v>-0.05045649724246361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1620622503284839</v>
+        <v>-0.1907369189453465</v>
       </c>
       <c r="C49">
-        <v>-0.0667934994802826</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.03573856413290424</v>
+      </c>
+      <c r="D49">
+        <v>-0.03220457580054506</v>
+      </c>
+      <c r="E49">
+        <v>0.1427942417268225</v>
+      </c>
+      <c r="F49">
+        <v>0.07533150347673073</v>
+      </c>
+      <c r="G49">
+        <v>-0.06875934533648831</v>
+      </c>
+      <c r="H49">
+        <v>0.2309458570097995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03765103312185124</v>
+        <v>-0.04493392080662318</v>
       </c>
       <c r="C50">
-        <v>-0.02334280865217648</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01602548646770312</v>
+      </c>
+      <c r="D50">
+        <v>-0.03001237452917811</v>
+      </c>
+      <c r="E50">
+        <v>-0.05370539458816821</v>
+      </c>
+      <c r="F50">
+        <v>0.008722385111039285</v>
+      </c>
+      <c r="G50">
+        <v>-0.01539196314103505</v>
+      </c>
+      <c r="H50">
+        <v>-0.06252547369886789</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02478463854120331</v>
+        <v>-0.0286151364631316</v>
       </c>
       <c r="C51">
-        <v>-0.008004972050439563</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.004088350766795718</v>
+      </c>
+      <c r="D51">
+        <v>-0.01675084325337906</v>
+      </c>
+      <c r="E51">
+        <v>-0.01538765731193387</v>
+      </c>
+      <c r="F51">
+        <v>0.01955323457087288</v>
+      </c>
+      <c r="G51">
+        <v>0.001515298081677114</v>
+      </c>
+      <c r="H51">
+        <v>0.01379366822141853</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.15120943637666</v>
+        <v>-0.1623518399349521</v>
       </c>
       <c r="C53">
-        <v>-0.08544796309770408</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.05435770835488896</v>
+      </c>
+      <c r="D53">
+        <v>-0.01664820223152486</v>
+      </c>
+      <c r="E53">
+        <v>0.02302823900893943</v>
+      </c>
+      <c r="F53">
+        <v>0.01745827612892454</v>
+      </c>
+      <c r="G53">
+        <v>-0.001167668572287399</v>
+      </c>
+      <c r="H53">
+        <v>-0.1525225049302957</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05541099302112393</v>
+        <v>-0.05773592294567447</v>
       </c>
       <c r="C54">
-        <v>-0.02472127576380187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01232965958620714</v>
+      </c>
+      <c r="D54">
+        <v>-0.01543588551792034</v>
+      </c>
+      <c r="E54">
+        <v>-0.05055683164047692</v>
+      </c>
+      <c r="F54">
+        <v>0.00524013114869299</v>
+      </c>
+      <c r="G54">
+        <v>0.01633859457365658</v>
+      </c>
+      <c r="H54">
+        <v>-0.05738499187088394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09948606483912303</v>
+        <v>-0.1041310516851469</v>
       </c>
       <c r="C55">
-        <v>-0.0593127340579619</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03698119180633071</v>
+      </c>
+      <c r="D55">
+        <v>-0.02191919421348458</v>
+      </c>
+      <c r="E55">
+        <v>-0.01688058476997951</v>
+      </c>
+      <c r="F55">
+        <v>0.01509858791780477</v>
+      </c>
+      <c r="G55">
+        <v>0.009668784885375321</v>
+      </c>
+      <c r="H55">
+        <v>-0.1389259713459621</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1446639200114339</v>
+        <v>-0.1592991311961206</v>
       </c>
       <c r="C56">
-        <v>-0.09502220966414759</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.0648733666140692</v>
+      </c>
+      <c r="D56">
+        <v>-0.01961995401505316</v>
+      </c>
+      <c r="E56">
+        <v>0.02376358585068686</v>
+      </c>
+      <c r="F56">
+        <v>0.03423804033377248</v>
+      </c>
+      <c r="G56">
+        <v>-0.006437866368862239</v>
+      </c>
+      <c r="H56">
+        <v>-0.1583245689414231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1198156161763386</v>
+        <v>-0.09769916294512179</v>
       </c>
       <c r="C58">
-        <v>-0.007484865650849932</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03315914399937844</v>
+      </c>
+      <c r="D58">
+        <v>-0.03980397978199776</v>
+      </c>
+      <c r="E58">
+        <v>-0.1663124019459919</v>
+      </c>
+      <c r="F58">
+        <v>-0.01422170726281692</v>
+      </c>
+      <c r="G58">
+        <v>-0.06169162472528959</v>
+      </c>
+      <c r="H58">
+        <v>0.1674249417815329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1145021259579814</v>
+        <v>-0.1379016222137343</v>
       </c>
       <c r="C59">
-        <v>-0.07978059876466297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08630098578763401</v>
+      </c>
+      <c r="D59">
+        <v>0.362145062120765</v>
+      </c>
+      <c r="E59">
+        <v>-0.02532871644632719</v>
+      </c>
+      <c r="F59">
+        <v>0.01536392635745706</v>
+      </c>
+      <c r="G59">
+        <v>-0.04620651648735011</v>
+      </c>
+      <c r="H59">
+        <v>0.005036309424421292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.201758452803434</v>
+        <v>-0.2311219096302982</v>
       </c>
       <c r="C60">
-        <v>-0.10813542851396</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.06855336809027096</v>
+      </c>
+      <c r="D60">
+        <v>-0.04130559663245223</v>
+      </c>
+      <c r="E60">
+        <v>0.09154303080118092</v>
+      </c>
+      <c r="F60">
+        <v>0.07042942700669447</v>
+      </c>
+      <c r="G60">
+        <v>0.01375948036117131</v>
+      </c>
+      <c r="H60">
+        <v>0.1774824824379554</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07847613104545949</v>
+        <v>-0.08746945183553936</v>
       </c>
       <c r="C61">
-        <v>-0.05183801706359223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03482677110303652</v>
+      </c>
+      <c r="D61">
+        <v>-0.04444991699378793</v>
+      </c>
+      <c r="E61">
+        <v>0.000466103985269904</v>
+      </c>
+      <c r="F61">
+        <v>0.003461532192532317</v>
+      </c>
+      <c r="G61">
+        <v>0.002761083007728109</v>
+      </c>
+      <c r="H61">
+        <v>-0.07478226689906106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1277445169745537</v>
+        <v>-0.1399052465621438</v>
       </c>
       <c r="C62">
-        <v>-0.07053712956595461</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.04338286802397603</v>
+      </c>
+      <c r="D62">
+        <v>-0.02639571084163264</v>
+      </c>
+      <c r="E62">
+        <v>0.0614705758636051</v>
+      </c>
+      <c r="F62">
+        <v>0.0231312015956792</v>
+      </c>
+      <c r="G62">
+        <v>0.02809964374928018</v>
+      </c>
+      <c r="H62">
+        <v>-0.1508739772020379</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05070414810049047</v>
+        <v>-0.0501491118126959</v>
       </c>
       <c r="C63">
-        <v>-0.02635410186381903</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01374834462276068</v>
+      </c>
+      <c r="D63">
+        <v>-0.01883342887567327</v>
+      </c>
+      <c r="E63">
+        <v>-0.05108072499160281</v>
+      </c>
+      <c r="F63">
+        <v>-0.01258323578009051</v>
+      </c>
+      <c r="G63">
+        <v>0.03424242990383421</v>
+      </c>
+      <c r="H63">
+        <v>-0.05879107499344602</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1073801854368722</v>
+        <v>-0.1094125456065726</v>
       </c>
       <c r="C64">
-        <v>-0.02918845744834107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.004947348372642984</v>
+      </c>
+      <c r="D64">
+        <v>-0.03937332269169071</v>
+      </c>
+      <c r="E64">
+        <v>-0.04364049272967653</v>
+      </c>
+      <c r="F64">
+        <v>0.04268130300445801</v>
+      </c>
+      <c r="G64">
+        <v>0.05059296376797907</v>
+      </c>
+      <c r="H64">
+        <v>-0.05824598911292477</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1202689213739897</v>
+        <v>-0.1272120500212483</v>
       </c>
       <c r="C65">
-        <v>-0.06348420970977259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03910559711442783</v>
+      </c>
+      <c r="D65">
+        <v>0.0006532478239760301</v>
+      </c>
+      <c r="E65">
+        <v>-0.00912894919193177</v>
+      </c>
+      <c r="F65">
+        <v>0.06751493694394106</v>
+      </c>
+      <c r="G65">
+        <v>0.05200460337100136</v>
+      </c>
+      <c r="H65">
+        <v>0.1129875579629484</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1414431677375928</v>
+        <v>-0.153839120358211</v>
       </c>
       <c r="C66">
-        <v>-0.07835385779941305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.04449432461990274</v>
+      </c>
+      <c r="D66">
+        <v>-0.1020589451841167</v>
+      </c>
+      <c r="E66">
+        <v>0.02827552730403919</v>
+      </c>
+      <c r="F66">
+        <v>0.01888685364040121</v>
+      </c>
+      <c r="G66">
+        <v>0.04831298301319473</v>
+      </c>
+      <c r="H66">
+        <v>-0.1565657677072818</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07282059507956828</v>
+        <v>-0.08267394362062361</v>
       </c>
       <c r="C67">
-        <v>-0.01590536401592361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003781877875546265</v>
+      </c>
+      <c r="D67">
+        <v>-0.03037883558102321</v>
+      </c>
+      <c r="E67">
+        <v>-0.0277549872345235</v>
+      </c>
+      <c r="F67">
+        <v>0.008988660544261676</v>
+      </c>
+      <c r="G67">
+        <v>-0.006767491313187639</v>
+      </c>
+      <c r="H67">
+        <v>-0.01981020910239969</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05886491376277848</v>
+        <v>-0.05951634467570267</v>
       </c>
       <c r="C68">
-        <v>-0.05159090040543216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05694898570612802</v>
+      </c>
+      <c r="D68">
+        <v>0.2694124854916342</v>
+      </c>
+      <c r="E68">
+        <v>-0.03732850313840599</v>
+      </c>
+      <c r="F68">
+        <v>0.01406088446696001</v>
+      </c>
+      <c r="G68">
+        <v>-0.01580474427552911</v>
+      </c>
+      <c r="H68">
+        <v>-0.008169508917965827</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05244426547157667</v>
+        <v>-0.05283260977943305</v>
       </c>
       <c r="C69">
-        <v>-0.02085647083143795</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.006026222521630488</v>
+      </c>
+      <c r="D69">
+        <v>-0.01702748779525075</v>
+      </c>
+      <c r="E69">
+        <v>-0.02574146012392952</v>
+      </c>
+      <c r="F69">
+        <v>-0.009002634526341226</v>
+      </c>
+      <c r="G69">
+        <v>-0.01122207519269215</v>
+      </c>
+      <c r="H69">
+        <v>-0.05093656000639066</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004997109706363505</v>
+        <v>-0.026697491919318</v>
       </c>
       <c r="C70">
-        <v>0.003984623780768751</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.001059185227402312</v>
+      </c>
+      <c r="D70">
+        <v>-0.001362941822410241</v>
+      </c>
+      <c r="E70">
+        <v>0.02468257307982501</v>
+      </c>
+      <c r="F70">
+        <v>0.03189686457572662</v>
+      </c>
+      <c r="G70">
+        <v>-0.02280425437527355</v>
+      </c>
+      <c r="H70">
+        <v>0.05525402722463372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0605332921260378</v>
+        <v>-0.06285877441601886</v>
       </c>
       <c r="C71">
-        <v>-0.05146619152306713</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05941423281567167</v>
+      </c>
+      <c r="D71">
+        <v>0.2967616754188466</v>
+      </c>
+      <c r="E71">
+        <v>-0.03220136641384747</v>
+      </c>
+      <c r="F71">
+        <v>0.04419993648119016</v>
+      </c>
+      <c r="G71">
+        <v>-0.003052834990435409</v>
+      </c>
+      <c r="H71">
+        <v>-0.0168809807350282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1370088661818172</v>
+        <v>-0.1478787462687979</v>
       </c>
       <c r="C72">
-        <v>-0.06646060195245658</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03766951199188269</v>
+      </c>
+      <c r="D72">
+        <v>0.01091541461719443</v>
+      </c>
+      <c r="E72">
+        <v>0.1230943916978104</v>
+      </c>
+      <c r="F72">
+        <v>-0.1521193017900185</v>
+      </c>
+      <c r="G72">
+        <v>0.1140379731311503</v>
+      </c>
+      <c r="H72">
+        <v>-0.02217916632115786</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2662573394685839</v>
+        <v>-0.2851129753042325</v>
       </c>
       <c r="C73">
-        <v>-0.1192658663467369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.05162775621623114</v>
+      </c>
+      <c r="D73">
+        <v>-0.1058275110495455</v>
+      </c>
+      <c r="E73">
+        <v>0.2068082167793723</v>
+      </c>
+      <c r="F73">
+        <v>0.1201413923195751</v>
+      </c>
+      <c r="G73">
+        <v>-0.2017973880652575</v>
+      </c>
+      <c r="H73">
+        <v>0.4735128244363035</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07894836184316291</v>
+        <v>-0.09232933135820516</v>
       </c>
       <c r="C74">
-        <v>-0.07961501346430194</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.05945582194783226</v>
+      </c>
+      <c r="D74">
+        <v>-0.03054383253475831</v>
+      </c>
+      <c r="E74">
+        <v>0.006021567411000729</v>
+      </c>
+      <c r="F74">
+        <v>-0.009707976511002754</v>
+      </c>
+      <c r="G74">
+        <v>-0.0314571439335475</v>
+      </c>
+      <c r="H74">
+        <v>-0.125093729106679</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09555185316350541</v>
+        <v>-0.1016926257172892</v>
       </c>
       <c r="C75">
-        <v>-0.05654554787766747</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02891862053204165</v>
+      </c>
+      <c r="D75">
+        <v>-0.01148330705576806</v>
+      </c>
+      <c r="E75">
+        <v>-0.008980157299377014</v>
+      </c>
+      <c r="F75">
+        <v>0.02897169462739101</v>
+      </c>
+      <c r="G75">
+        <v>-0.01071767129580052</v>
+      </c>
+      <c r="H75">
+        <v>-0.1127890841456464</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1277825405387841</v>
+        <v>-0.1397237903675695</v>
       </c>
       <c r="C76">
-        <v>-0.08750679181041841</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05754578262922388</v>
+      </c>
+      <c r="D76">
+        <v>-0.049547648588853</v>
+      </c>
+      <c r="E76">
+        <v>-0.03362372306883669</v>
+      </c>
+      <c r="F76">
+        <v>0.04519962420433044</v>
+      </c>
+      <c r="G76">
+        <v>0.004593971351735988</v>
+      </c>
+      <c r="H76">
+        <v>-0.156544477577487</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1173431154514606</v>
+        <v>-0.1125568818772082</v>
       </c>
       <c r="C77">
-        <v>-0.02757962666345729</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.001570733891959611</v>
+      </c>
+      <c r="D77">
+        <v>-0.01204173914325918</v>
+      </c>
+      <c r="E77">
+        <v>-0.005748247731439782</v>
+      </c>
+      <c r="F77">
+        <v>0.1555602163704332</v>
+      </c>
+      <c r="G77">
+        <v>0.8794078132584603</v>
+      </c>
+      <c r="H77">
+        <v>0.2253308190783165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09599480299656746</v>
+        <v>-0.13492620458473</v>
       </c>
       <c r="C78">
-        <v>-0.04304724181090279</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03422072959263172</v>
+      </c>
+      <c r="D78">
+        <v>-0.0969970494981062</v>
+      </c>
+      <c r="E78">
+        <v>-0.06027899563784417</v>
+      </c>
+      <c r="F78">
+        <v>0.01754703600476692</v>
+      </c>
+      <c r="G78">
+        <v>0.05205321583863827</v>
+      </c>
+      <c r="H78">
+        <v>0.05408710061603679</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1446994688733744</v>
+        <v>-0.1513121063926847</v>
       </c>
       <c r="C79">
-        <v>-0.08500776422843524</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04774330759403918</v>
+      </c>
+      <c r="D79">
+        <v>-0.02664511787448417</v>
+      </c>
+      <c r="E79">
+        <v>0.0115129792747775</v>
+      </c>
+      <c r="F79">
+        <v>0.01770278947510706</v>
+      </c>
+      <c r="G79">
+        <v>-0.02279931027100835</v>
+      </c>
+      <c r="H79">
+        <v>-0.160001613359633</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04386049800944389</v>
+        <v>-0.04237159695540169</v>
       </c>
       <c r="C80">
-        <v>-0.01671095693064338</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.00593492480235881</v>
+      </c>
+      <c r="D80">
+        <v>-0.02037337251390553</v>
+      </c>
+      <c r="E80">
+        <v>0.00502781740251776</v>
+      </c>
+      <c r="F80">
+        <v>-0.009794446649785703</v>
+      </c>
+      <c r="G80">
+        <v>-0.03124643662466635</v>
+      </c>
+      <c r="H80">
+        <v>-0.04974225672939152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1172173942778966</v>
+        <v>-0.1216301325277493</v>
       </c>
       <c r="C81">
-        <v>-0.06791842872739268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03714997295467281</v>
+      </c>
+      <c r="D81">
+        <v>-0.0209694915330184</v>
+      </c>
+      <c r="E81">
+        <v>-0.028583517778823</v>
+      </c>
+      <c r="F81">
+        <v>0.01168008960903997</v>
+      </c>
+      <c r="G81">
+        <v>-0.03631298298527334</v>
+      </c>
+      <c r="H81">
+        <v>-0.1613413527324186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1267316663151972</v>
+        <v>-0.1299120523893067</v>
       </c>
       <c r="C82">
-        <v>-0.08171011028546318</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.04971987440861571</v>
+      </c>
+      <c r="D82">
+        <v>-0.02751463559374229</v>
+      </c>
+      <c r="E82">
+        <v>0.01044134636191471</v>
+      </c>
+      <c r="F82">
+        <v>0.05538799277045327</v>
+      </c>
+      <c r="G82">
+        <v>-0.03163717321625323</v>
+      </c>
+      <c r="H82">
+        <v>-0.1858656210437374</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07953854478946064</v>
+        <v>-0.08773779097024885</v>
       </c>
       <c r="C83">
-        <v>0.0001172368723287281</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.01813727381600834</v>
+      </c>
+      <c r="D83">
+        <v>-0.04014087988987839</v>
+      </c>
+      <c r="E83">
+        <v>-0.0262452297565086</v>
+      </c>
+      <c r="F83">
+        <v>0.04771956699892456</v>
+      </c>
+      <c r="G83">
+        <v>-0.09135475760940831</v>
+      </c>
+      <c r="H83">
+        <v>0.06976989480603847</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02880273882330018</v>
+        <v>-0.03915659100456356</v>
       </c>
       <c r="C84">
-        <v>-0.02580447085776011</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02022485099719835</v>
+      </c>
+      <c r="D84">
+        <v>-0.02932105143642722</v>
+      </c>
+      <c r="E84">
+        <v>-0.02344462063542673</v>
+      </c>
+      <c r="F84">
+        <v>-0.05490091283151399</v>
+      </c>
+      <c r="G84">
+        <v>-0.05388234614117596</v>
+      </c>
+      <c r="H84">
+        <v>-0.02764086084071427</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1177004117957526</v>
+        <v>-0.1195291122082319</v>
       </c>
       <c r="C85">
-        <v>-0.06424371250561549</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03222534902715753</v>
+      </c>
+      <c r="D85">
+        <v>-0.024086759691723</v>
+      </c>
+      <c r="E85">
+        <v>-0.02169686418112265</v>
+      </c>
+      <c r="F85">
+        <v>0.03913501662915177</v>
+      </c>
+      <c r="G85">
+        <v>-0.01008821612141486</v>
+      </c>
+      <c r="H85">
+        <v>-0.14769528422494</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05044166143309736</v>
+        <v>-0.05860359547119714</v>
       </c>
       <c r="C86">
-        <v>-0.03103763185280025</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01929100431127136</v>
+      </c>
+      <c r="D86">
+        <v>-0.02069257896693837</v>
+      </c>
+      <c r="E86">
+        <v>-0.06192859759503135</v>
+      </c>
+      <c r="F86">
+        <v>0.02903817933850373</v>
+      </c>
+      <c r="G86">
+        <v>-0.008231896676774337</v>
+      </c>
+      <c r="H86">
+        <v>-0.00901697586669024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.121373883374653</v>
+        <v>-0.1226571554210903</v>
       </c>
       <c r="C87">
-        <v>-0.07189160636097436</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.0340321123244078</v>
+      </c>
+      <c r="D87">
+        <v>-0.07634714678106305</v>
+      </c>
+      <c r="E87">
+        <v>-0.02093106273858042</v>
+      </c>
+      <c r="F87">
+        <v>-0.004316956785536844</v>
+      </c>
+      <c r="G87">
+        <v>0.105524860510574</v>
+      </c>
+      <c r="H87">
+        <v>0.01601764679128297</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05297007298045725</v>
+        <v>-0.060584875176109</v>
       </c>
       <c r="C88">
-        <v>-0.03088886497012767</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01943867320252209</v>
+      </c>
+      <c r="D88">
+        <v>-0.02768413076971294</v>
+      </c>
+      <c r="E88">
+        <v>-0.02030745039040179</v>
+      </c>
+      <c r="F88">
+        <v>0.007899811054475655</v>
+      </c>
+      <c r="G88">
+        <v>0.01500109499365165</v>
+      </c>
+      <c r="H88">
+        <v>-0.05527647498254136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08103507544945775</v>
+        <v>-0.09394369616895082</v>
       </c>
       <c r="C89">
-        <v>-0.06735214140746433</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07738690201009116</v>
+      </c>
+      <c r="D89">
+        <v>0.3424148081044162</v>
+      </c>
+      <c r="E89">
+        <v>-0.07095289174046585</v>
+      </c>
+      <c r="F89">
+        <v>0.07893953471396159</v>
+      </c>
+      <c r="G89">
+        <v>-0.0209968755179895</v>
+      </c>
+      <c r="H89">
+        <v>-0.01202102774731877</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07277572206278227</v>
+        <v>-0.08043085461188658</v>
       </c>
       <c r="C90">
-        <v>-0.06044400882933249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06788957793254106</v>
+      </c>
+      <c r="D90">
+        <v>0.3100812480991502</v>
+      </c>
+      <c r="E90">
+        <v>-0.06063257889085796</v>
+      </c>
+      <c r="F90">
+        <v>0.001143782384445484</v>
+      </c>
+      <c r="G90">
+        <v>-0.004642765690050641</v>
+      </c>
+      <c r="H90">
+        <v>-0.00993161270280535</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08345561332647468</v>
+        <v>-0.08962676019963561</v>
       </c>
       <c r="C91">
-        <v>-0.05599060669578981</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03333620559334186</v>
+      </c>
+      <c r="D91">
+        <v>-0.03049870517238533</v>
+      </c>
+      <c r="E91">
+        <v>-0.0142963264125412</v>
+      </c>
+      <c r="F91">
+        <v>0.002515449237827146</v>
+      </c>
+      <c r="G91">
+        <v>-0.04614963696546322</v>
+      </c>
+      <c r="H91">
+        <v>-0.07563900694331395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07427571653182109</v>
+        <v>-0.08133772176436704</v>
       </c>
       <c r="C92">
-        <v>-0.07364833568654276</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.08102407187303703</v>
+      </c>
+      <c r="D92">
+        <v>0.3406892714842748</v>
+      </c>
+      <c r="E92">
+        <v>-0.04853614857400661</v>
+      </c>
+      <c r="F92">
+        <v>0.03569293494808223</v>
+      </c>
+      <c r="G92">
+        <v>0.002238681480609113</v>
+      </c>
+      <c r="H92">
+        <v>-0.02044860733237605</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06566236956594496</v>
+        <v>-0.07909065662094968</v>
       </c>
       <c r="C93">
-        <v>-0.06586981145862983</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.0783977239650923</v>
+      </c>
+      <c r="D93">
+        <v>0.3073344849578952</v>
+      </c>
+      <c r="E93">
+        <v>-0.03710471493504497</v>
+      </c>
+      <c r="F93">
+        <v>0.04128720324866531</v>
+      </c>
+      <c r="G93">
+        <v>0.007133742327591339</v>
+      </c>
+      <c r="H93">
+        <v>0.008442699492994879</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1327452705547541</v>
+        <v>-0.128000958091681</v>
       </c>
       <c r="C94">
-        <v>-0.06136712666881139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02234705173680507</v>
+      </c>
+      <c r="D94">
+        <v>-0.04509473476514399</v>
+      </c>
+      <c r="E94">
+        <v>0.004425767352656828</v>
+      </c>
+      <c r="F94">
+        <v>0.02079559944057033</v>
+      </c>
+      <c r="G94">
+        <v>-0.04080941887501605</v>
+      </c>
+      <c r="H94">
+        <v>-0.105863978610304</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1176449824854711</v>
+        <v>-0.1286425066072636</v>
       </c>
       <c r="C95">
-        <v>-0.03983872426326986</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.01040704636426803</v>
+      </c>
+      <c r="D95">
+        <v>-0.05923001207910412</v>
+      </c>
+      <c r="E95">
+        <v>-0.01210605737720797</v>
+      </c>
+      <c r="F95">
+        <v>0.05010474498635635</v>
+      </c>
+      <c r="G95">
+        <v>-0.01671562591703411</v>
+      </c>
+      <c r="H95">
+        <v>0.03132688125938199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1997671232471342</v>
+        <v>-0.2095159242603825</v>
       </c>
       <c r="C97">
-        <v>-0.04591040560427067</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.005435899621089165</v>
+      </c>
+      <c r="D97">
+        <v>0.09055160139764973</v>
+      </c>
+      <c r="E97">
+        <v>0.3253309329780646</v>
+      </c>
+      <c r="F97">
+        <v>-0.8598560336206744</v>
+      </c>
+      <c r="G97">
+        <v>0.1037662031004881</v>
+      </c>
+      <c r="H97">
+        <v>0.004568086843684135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2449245728252178</v>
+        <v>-0.273771488172353</v>
       </c>
       <c r="C98">
-        <v>-0.08826126523794449</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03753155395953589</v>
+      </c>
+      <c r="D98">
+        <v>-0.06710248919528133</v>
+      </c>
+      <c r="E98">
+        <v>0.1570094759078015</v>
+      </c>
+      <c r="F98">
+        <v>0.07722601070487835</v>
+      </c>
+      <c r="G98">
+        <v>-0.2819236594355479</v>
+      </c>
+      <c r="H98">
+        <v>0.2639311415988625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4736054133288379</v>
+        <v>-0.2884536704956555</v>
       </c>
       <c r="C99">
-        <v>0.865886357248807</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9354114977856954</v>
+      </c>
+      <c r="D99">
+        <v>0.1261506192169309</v>
+      </c>
+      <c r="E99">
+        <v>-0.06662217880264461</v>
+      </c>
+      <c r="F99">
+        <v>0.04242607538244409</v>
+      </c>
+      <c r="G99">
+        <v>-0.01343100524104503</v>
+      </c>
+      <c r="H99">
+        <v>-0.06282227636383673</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04065762784355301</v>
+        <v>-0.04868232174795139</v>
       </c>
       <c r="C101">
-        <v>-0.03239635233941354</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02585129444854981</v>
+      </c>
+      <c r="D101">
+        <v>-0.004967369435241113</v>
+      </c>
+      <c r="E101">
+        <v>-0.05435878959428661</v>
+      </c>
+      <c r="F101">
+        <v>0.0001204265867369043</v>
+      </c>
+      <c r="G101">
+        <v>-0.0003443614538086313</v>
+      </c>
+      <c r="H101">
+        <v>-0.08259512666947648</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
